--- a/Result/30-11-24/NASDAQstock_30-11-24period252RS90.xlsx
+++ b/Result/30-11-24/NASDAQstock_30-11-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/30-11-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C358D9AE-DDCB-9A49-AB20-8C7A8084B047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918DE045-6609-BC4D-ABA9-C31EF618768F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:AN122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/Result/30-11-24/NASDAQstock_30-11-24period252RS90.xlsx
+++ b/Result/30-11-24/NASDAQstock_30-11-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/30-11-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918DE045-6609-BC4D-ABA9-C31EF618768F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65207F76-F33B-7246-9857-60C4811AB36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -836,6 +836,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1140,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1864,7 +1865,7 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B7">
@@ -2459,7 +2460,7 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B12">
@@ -2816,7 +2817,7 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B15">
@@ -4244,7 +4245,7 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
+      <c r="A27" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B27">
@@ -4482,7 +4483,7 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
+      <c r="A29" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B29">
@@ -4601,7 +4602,7 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
+      <c r="A30" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B30">
@@ -4958,7 +4959,7 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
+      <c r="A33" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B33">
@@ -5553,7 +5554,7 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
+      <c r="A38" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B38">
@@ -5791,7 +5792,7 @@
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" t="s">
+      <c r="A40" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B40">

--- a/Result/30-11-24/NASDAQstock_30-11-24period252RS90.xlsx
+++ b/Result/30-11-24/NASDAQstock_30-11-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/30-11-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65207F76-F33B-7246-9857-60C4811AB36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21178614-B178-6045-A588-7197E39EC707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1627,7 +1627,7 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B5">
@@ -1865,7 +1865,7 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>57</v>
       </c>
       <c r="B7">
@@ -2103,7 +2103,7 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B9">
@@ -2341,7 +2341,7 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B11">
@@ -2460,7 +2460,7 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B12">
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B13">
@@ -2698,7 +2698,7 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B14">
@@ -3055,7 +3055,7 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B17">
@@ -3174,7 +3174,7 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
+      <c r="A18" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B18">
@@ -3293,7 +3293,7 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
+      <c r="A19" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B19">
@@ -3412,7 +3412,7 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
+      <c r="A20" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B20">
@@ -3531,7 +3531,7 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
+      <c r="A21" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B21">
@@ -3650,7 +3650,7 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
+      <c r="A22" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B22">
@@ -3888,7 +3888,7 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
+      <c r="A24" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B24">
@@ -4007,7 +4007,7 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
+      <c r="A25" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B25">
@@ -4126,7 +4126,7 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
+      <c r="A26" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B26">
@@ -4364,7 +4364,7 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
+      <c r="A28" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B28">
@@ -4483,7 +4483,7 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B29">
@@ -4602,7 +4602,7 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B30">
@@ -4840,7 +4840,7 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
+      <c r="A32" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B32">
@@ -4959,7 +4959,7 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B33">
@@ -5078,7 +5078,7 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
+      <c r="A34" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B34">
@@ -5197,7 +5197,7 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
+      <c r="A35" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B35">
@@ -5316,7 +5316,7 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
+      <c r="A36" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B36">
@@ -5435,7 +5435,7 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
+      <c r="A37" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B37">
@@ -5554,7 +5554,7 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B38">
@@ -5673,7 +5673,7 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
+      <c r="A39" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B39">
@@ -5914,7 +5914,7 @@
       </c>
     </row>
     <row r="41" spans="1:40">
-      <c r="A41" t="s">
+      <c r="A41" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B41">
@@ -6033,7 +6033,7 @@
       </c>
     </row>
     <row r="42" spans="1:40">
-      <c r="A42" t="s">
+      <c r="A42" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B42">

--- a/Result/30-11-24/NASDAQstock_30-11-24period252RS90.xlsx
+++ b/Result/30-11-24/NASDAQstock_30-11-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/30-11-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21178614-B178-6045-A588-7197E39EC707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6875B9C2-5BDF-CC4E-ACC7-BCEA021711ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,7 +766,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,12 +789,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA500"/>
         <bgColor rgb="FFFFA500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -825,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -835,7 +829,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,7 +1135,7 @@
   <dimension ref="A1:AN122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1389,7 +1382,7 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B3">
@@ -1508,7 +1501,7 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B4">
@@ -1746,7 +1739,7 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B6">
@@ -1865,7 +1858,7 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B7">
@@ -1984,7 +1977,7 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B8">
@@ -2103,7 +2096,7 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B9">
@@ -2341,7 +2334,7 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B11">
@@ -2460,7 +2453,7 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B12">
@@ -2579,7 +2572,7 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B13">
@@ -2698,7 +2691,7 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B14">
@@ -3055,7 +3048,7 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B17">
@@ -3174,7 +3167,7 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B18">
@@ -3293,7 +3286,7 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B19">
@@ -3412,7 +3405,7 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B20">
@@ -3531,7 +3524,7 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B21">
@@ -3650,7 +3643,7 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B22">
@@ -3888,7 +3881,7 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B24">
@@ -4007,7 +4000,7 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B25">
@@ -4126,7 +4119,7 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B26">
@@ -4364,7 +4357,7 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B28">
@@ -4483,7 +4476,7 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B29">
@@ -4602,7 +4595,7 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B30">
@@ -4840,7 +4833,7 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B32">
@@ -4959,7 +4952,7 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B33">
@@ -5078,7 +5071,7 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B34">
@@ -5197,7 +5190,7 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B35">
@@ -5316,7 +5309,7 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B36">
@@ -5435,7 +5428,7 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B37">
@@ -5554,7 +5547,7 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B38">
@@ -5673,7 +5666,7 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B39">
@@ -5914,7 +5907,7 @@
       </c>
     </row>
     <row r="41" spans="1:40">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B41">
@@ -6152,7 +6145,7 @@
       </c>
     </row>
     <row r="43" spans="1:40">
-      <c r="A43" t="s">
+      <c r="A43" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B43">
@@ -6271,7 +6264,7 @@
       </c>
     </row>
     <row r="44" spans="1:40">
-      <c r="A44" t="s">
+      <c r="A44" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B44">
@@ -6384,7 +6377,7 @@
       </c>
     </row>
     <row r="45" spans="1:40">
-      <c r="A45" t="s">
+      <c r="A45" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B45">
@@ -6503,7 +6496,7 @@
       </c>
     </row>
     <row r="46" spans="1:40">
-      <c r="A46" t="s">
+      <c r="A46" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B46">
@@ -6622,7 +6615,7 @@
       </c>
     </row>
     <row r="47" spans="1:40">
-      <c r="A47" t="s">
+      <c r="A47" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B47">
@@ -6741,7 +6734,7 @@
       </c>
     </row>
     <row r="48" spans="1:40">
-      <c r="A48" t="s">
+      <c r="A48" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B48">
@@ -6860,7 +6853,7 @@
       </c>
     </row>
     <row r="49" spans="1:40">
-      <c r="A49" t="s">
+      <c r="A49" s="7" t="s">
         <v>128</v>
       </c>
       <c r="B49">
@@ -6979,7 +6972,7 @@
       </c>
     </row>
     <row r="50" spans="1:40">
-      <c r="A50" t="s">
+      <c r="A50" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B50">
@@ -7098,7 +7091,7 @@
       </c>
     </row>
     <row r="51" spans="1:40">
-      <c r="A51" t="s">
+      <c r="A51" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B51">
@@ -7217,7 +7210,7 @@
       </c>
     </row>
     <row r="52" spans="1:40">
-      <c r="A52" t="s">
+      <c r="A52" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B52">
@@ -7336,7 +7329,7 @@
       </c>
     </row>
     <row r="53" spans="1:40">
-      <c r="A53" t="s">
+      <c r="A53" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B53">
@@ -7458,7 +7451,7 @@
       </c>
     </row>
     <row r="54" spans="1:40">
-      <c r="A54" t="s">
+      <c r="A54" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B54">
@@ -7577,7 +7570,7 @@
       </c>
     </row>
     <row r="55" spans="1:40">
-      <c r="A55" t="s">
+      <c r="A55" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B55">
@@ -7696,7 +7689,7 @@
       </c>
     </row>
     <row r="56" spans="1:40">
-      <c r="A56" t="s">
+      <c r="A56" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B56">
@@ -7815,7 +7808,7 @@
       </c>
     </row>
     <row r="57" spans="1:40">
-      <c r="A57" t="s">
+      <c r="A57" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B57">
@@ -7934,7 +7927,7 @@
       </c>
     </row>
     <row r="58" spans="1:40">
-      <c r="A58" t="s">
+      <c r="A58" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B58">
@@ -8053,7 +8046,7 @@
       </c>
     </row>
     <row r="59" spans="1:40">
-      <c r="A59" t="s">
+      <c r="A59" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B59">
@@ -8172,7 +8165,7 @@
       </c>
     </row>
     <row r="60" spans="1:40">
-      <c r="A60" t="s">
+      <c r="A60" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B60">
@@ -8291,7 +8284,7 @@
       </c>
     </row>
     <row r="61" spans="1:40">
-      <c r="A61" t="s">
+      <c r="A61" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B61">
@@ -8410,7 +8403,7 @@
       </c>
     </row>
     <row r="62" spans="1:40">
-      <c r="A62" t="s">
+      <c r="A62" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B62">
@@ -8529,7 +8522,7 @@
       </c>
     </row>
     <row r="63" spans="1:40">
-      <c r="A63" t="s">
+      <c r="A63" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B63">
@@ -8648,7 +8641,7 @@
       </c>
     </row>
     <row r="64" spans="1:40">
-      <c r="A64" t="s">
+      <c r="A64" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B64">
@@ -8767,7 +8760,7 @@
       </c>
     </row>
     <row r="65" spans="1:40">
-      <c r="A65" t="s">
+      <c r="A65" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B65">
@@ -8886,7 +8879,7 @@
       </c>
     </row>
     <row r="66" spans="1:40">
-      <c r="A66" t="s">
+      <c r="A66" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B66">
@@ -9005,7 +8998,7 @@
       </c>
     </row>
     <row r="67" spans="1:40">
-      <c r="A67" t="s">
+      <c r="A67" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B67">
@@ -9124,7 +9117,7 @@
       </c>
     </row>
     <row r="68" spans="1:40">
-      <c r="A68" t="s">
+      <c r="A68" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B68">
@@ -9243,7 +9236,7 @@
       </c>
     </row>
     <row r="69" spans="1:40">
-      <c r="A69" t="s">
+      <c r="A69" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B69">
@@ -9362,7 +9355,7 @@
       </c>
     </row>
     <row r="70" spans="1:40">
-      <c r="A70" t="s">
+      <c r="A70" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B70">
@@ -9481,7 +9474,7 @@
       </c>
     </row>
     <row r="71" spans="1:40">
-      <c r="A71" t="s">
+      <c r="A71" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B71">
@@ -9600,7 +9593,7 @@
       </c>
     </row>
     <row r="72" spans="1:40">
-      <c r="A72" t="s">
+      <c r="A72" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B72">
@@ -9719,7 +9712,7 @@
       </c>
     </row>
     <row r="73" spans="1:40">
-      <c r="A73" t="s">
+      <c r="A73" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B73">
@@ -9838,7 +9831,7 @@
       </c>
     </row>
     <row r="74" spans="1:40">
-      <c r="A74" t="s">
+      <c r="A74" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B74">
@@ -9957,7 +9950,7 @@
       </c>
     </row>
     <row r="75" spans="1:40">
-      <c r="A75" t="s">
+      <c r="A75" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B75">
@@ -10076,7 +10069,7 @@
       </c>
     </row>
     <row r="76" spans="1:40">
-      <c r="A76" t="s">
+      <c r="A76" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B76">
@@ -10195,7 +10188,7 @@
       </c>
     </row>
     <row r="77" spans="1:40">
-      <c r="A77" t="s">
+      <c r="A77" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B77">
@@ -10314,7 +10307,7 @@
       </c>
     </row>
     <row r="78" spans="1:40">
-      <c r="A78" t="s">
+      <c r="A78" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B78">
@@ -10433,7 +10426,7 @@
       </c>
     </row>
     <row r="79" spans="1:40">
-      <c r="A79" t="s">
+      <c r="A79" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B79">
@@ -10552,7 +10545,7 @@
       </c>
     </row>
     <row r="80" spans="1:40">
-      <c r="A80" t="s">
+      <c r="A80" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B80">
@@ -10671,7 +10664,7 @@
       </c>
     </row>
     <row r="81" spans="1:40">
-      <c r="A81" t="s">
+      <c r="A81" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B81">
@@ -10790,7 +10783,7 @@
       </c>
     </row>
     <row r="82" spans="1:40">
-      <c r="A82" t="s">
+      <c r="A82" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B82">
@@ -10909,7 +10902,7 @@
       </c>
     </row>
     <row r="83" spans="1:40">
-      <c r="A83" t="s">
+      <c r="A83" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B83">
@@ -11028,7 +11021,7 @@
       </c>
     </row>
     <row r="84" spans="1:40">
-      <c r="A84" t="s">
+      <c r="A84" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B84">
@@ -11147,7 +11140,7 @@
       </c>
     </row>
     <row r="85" spans="1:40">
-      <c r="A85" t="s">
+      <c r="A85" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B85">
@@ -11266,7 +11259,7 @@
       </c>
     </row>
     <row r="86" spans="1:40">
-      <c r="A86" t="s">
+      <c r="A86" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B86">
@@ -11385,7 +11378,7 @@
       </c>
     </row>
     <row r="87" spans="1:40">
-      <c r="A87" t="s">
+      <c r="A87" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B87">
@@ -11504,7 +11497,7 @@
       </c>
     </row>
     <row r="88" spans="1:40">
-      <c r="A88" t="s">
+      <c r="A88" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B88">
@@ -11623,7 +11616,7 @@
       </c>
     </row>
     <row r="89" spans="1:40">
-      <c r="A89" t="s">
+      <c r="A89" s="7" t="s">
         <v>188</v>
       </c>
       <c r="B89">
@@ -11742,7 +11735,7 @@
       </c>
     </row>
     <row r="90" spans="1:40">
-      <c r="A90" t="s">
+      <c r="A90" s="7" t="s">
         <v>189</v>
       </c>
       <c r="B90">
@@ -11861,7 +11854,7 @@
       </c>
     </row>
     <row r="91" spans="1:40">
-      <c r="A91" t="s">
+      <c r="A91" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B91">
@@ -11980,7 +11973,7 @@
       </c>
     </row>
     <row r="92" spans="1:40">
-      <c r="A92" t="s">
+      <c r="A92" s="7" t="s">
         <v>192</v>
       </c>
       <c r="B92">
@@ -12099,7 +12092,7 @@
       </c>
     </row>
     <row r="93" spans="1:40">
-      <c r="A93" t="s">
+      <c r="A93" s="7" t="s">
         <v>194</v>
       </c>
       <c r="B93">
@@ -12218,7 +12211,7 @@
       </c>
     </row>
     <row r="94" spans="1:40">
-      <c r="A94" t="s">
+      <c r="A94" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B94">
@@ -12337,7 +12330,7 @@
       </c>
     </row>
     <row r="95" spans="1:40">
-      <c r="A95" t="s">
+      <c r="A95" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B95">
@@ -12456,7 +12449,7 @@
       </c>
     </row>
     <row r="96" spans="1:40">
-      <c r="A96" t="s">
+      <c r="A96" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B96">
@@ -12575,7 +12568,7 @@
       </c>
     </row>
     <row r="97" spans="1:40">
-      <c r="A97" t="s">
+      <c r="A97" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B97">
@@ -12694,7 +12687,7 @@
       </c>
     </row>
     <row r="98" spans="1:40">
-      <c r="A98" t="s">
+      <c r="A98" s="7" t="s">
         <v>200</v>
       </c>
       <c r="B98">
@@ -12813,7 +12806,7 @@
       </c>
     </row>
     <row r="99" spans="1:40">
-      <c r="A99" t="s">
+      <c r="A99" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B99">
@@ -12932,7 +12925,7 @@
       </c>
     </row>
     <row r="100" spans="1:40">
-      <c r="A100" t="s">
+      <c r="A100" s="7" t="s">
         <v>204</v>
       </c>
       <c r="B100">
@@ -13051,7 +13044,7 @@
       </c>
     </row>
     <row r="101" spans="1:40">
-      <c r="A101" t="s">
+      <c r="A101" s="7" t="s">
         <v>205</v>
       </c>
       <c r="B101">
@@ -13170,7 +13163,7 @@
       </c>
     </row>
     <row r="102" spans="1:40">
-      <c r="A102" t="s">
+      <c r="A102" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B102">
@@ -13289,7 +13282,7 @@
       </c>
     </row>
     <row r="103" spans="1:40">
-      <c r="A103" t="s">
+      <c r="A103" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B103">
@@ -13408,7 +13401,7 @@
       </c>
     </row>
     <row r="104" spans="1:40">
-      <c r="A104" t="s">
+      <c r="A104" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B104">
@@ -13527,7 +13520,7 @@
       </c>
     </row>
     <row r="105" spans="1:40">
-      <c r="A105" t="s">
+      <c r="A105" s="7" t="s">
         <v>209</v>
       </c>
       <c r="B105">
@@ -13646,7 +13639,7 @@
       </c>
     </row>
     <row r="106" spans="1:40">
-      <c r="A106" t="s">
+      <c r="A106" s="7" t="s">
         <v>210</v>
       </c>
       <c r="B106">
@@ -13765,7 +13758,7 @@
       </c>
     </row>
     <row r="107" spans="1:40">
-      <c r="A107" t="s">
+      <c r="A107" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B107">
